--- a/xlsx/比佛利山_intext.xlsx
+++ b/xlsx/比佛利山_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>比佛利山</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%8F%AF%E5%88%A9%E5%B1%B1_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>比華利山 (消歧義)</t>
+    <t>比华利山 (消歧义)</t>
   </si>
   <si>
     <t>政策_政策_加州_比佛利山</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛杉磯縣 (加利福尼亞州)</t>
+    <t>洛杉矶县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -65,31 +65,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>加利福尼亞</t>
+    <t>加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E6%88%B4%E7%88%BE%E5%A4%8F</t>
   </si>
   <si>
-    <t>吉米·戴爾夏</t>
+    <t>吉米·戴尔夏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>市經理</t>
+    <t>市经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E5%8D%80%E7%B7%A8%E8%99%9F</t>
   </si>
   <si>
-    <t>美國郵區編號</t>
+    <t>美国邮区编号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%AF%9D%E5%8F%B7%E7%A0%81%E5%88%86%E7%B1%BB%E8%AE%A1%E5%88%92</t>
@@ -137,25 +137,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%B3%87%E6%96%99%E8%99%95%E7%90%86%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>聯邦資料處理標準</t>
+    <t>联邦资料处理标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%BD%E8%90%8A%E5%A1%A2</t>
   </si>
   <si>
-    <t>西好萊塢</t>
+    <t>西好莱坞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E8%90%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>貝萊爾</t>
+    <t>贝莱尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%AA</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E6%AD%90%E8%A1%97</t>
   </si>
   <si>
-    <t>羅迪歐街</t>
+    <t>罗迪欧街</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BD%9B%E5%88%A9%E5%B1%B1%E9%A3%AF%E5%BA%97</t>
   </si>
   <si>
-    <t>比佛利山飯店</t>
+    <t>比佛利山饭店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
+    <t>美国原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E4%BA%BA</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE%E9%96%80%E6%AA%BB</t>
   </si>
   <si>
-    <t>貧窮門檻</t>
+    <t>贫穷门槛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%B6%8A%E6%AF%94%E4%BD%9B%E5%88%A9</t>
   </si>
   <si>
-    <t>飛越比佛利</t>
+    <t>飞越比佛利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%B7%9E</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%B1%E7%91%9E</t>
   </si>
   <si>
-    <t>約翰·凱瑞</t>
+    <t>约翰·凯瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%AB%BE%C2%B7%E5%8F%B2%E7%93%A6%E8%BE%9B%E6%A0%BC</t>
   </si>
   <si>
-    <t>阿諾·史瓦辛格</t>
+    <t>阿诺·史瓦辛格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>市議會</t>
+    <t>市议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BD%9B%E5%88%A9%E5%B1%B1%E8%B6%85%E7%BA%A7%E8%AD%A6%E6%8E%A2</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%94%E8%A5%BF%E5%8D%A1%C2%B7%E8%89%BE%E5%B7%B4</t>
   </si>
   <si>
-    <t>潔西卡·艾巴</t>
+    <t>洁西卡·艾巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%89%E7%B5%B2%E6%B1%80%C2%B7%E9%98%BF%E5%A5%8E%E8%90%8A%E6%8B%89</t>
   </si>
   <si>
-    <t>克莉絲汀·阿奎萊拉</t>
+    <t>克莉丝汀·阿奎莱拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E4%BD%9B%C2%B7%E5%AE%89%E5%A6%AE%E6%96%AF%E9%A1%BF</t>
@@ -341,37 +341,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%BB%E7%93%9C%E9%BE%90%E5%85%8B</t>
   </si>
   <si>
-    <t>傻瓜龐克</t>
+    <t>傻瓜庞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E8%B2%9D%E5%85%8B%E6%BC%A2</t>
   </si>
   <si>
-    <t>大衛·貝克漢</t>
+    <t>大卫·贝克汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E8%8E%89%E4%BA%9E%C2%B7%E8%B2%9D%E5%85%8B%E6%BC%A2</t>
   </si>
   <si>
-    <t>維多莉亞·貝克漢</t>
+    <t>维多莉亚·贝克汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%91%9E%C2%B7%E9%82%A6%E8%8C%B2</t>
   </si>
   <si>
-    <t>貝瑞·邦茲</t>
+    <t>贝瑞·邦兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E5%85%8B%E9%AD%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>湯姆·克魯斯</t>
+    <t>汤姆·克鲁斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%80%AB%C2%B7%E7%8B%84%E7%8F%8D%E5%A6%AE</t>
   </si>
   <si>
-    <t>艾倫·狄珍妮</t>
+    <t>艾伦·狄珍妮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%BB%9B%E4%B8%BD%C2%B7%E8%B5%AB%E6%9C%AC</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E9%BB%8E%E7%B5%B2%C2%B7%E5%B8%8C%E7%88%BE%E9%A0%93</t>
   </si>
   <si>
-    <t>芭黎絲·希爾頓</t>
+    <t>芭黎丝·希尔顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BF%AA%C2%B7%E5%85%8B%E6%9E%97</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A8%9C%C2%B7%E5%82%91%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>珍娜·傑克森</t>
+    <t>珍娜·杰克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E5%82%91%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>麥可·傑克森</t>
+    <t>麦可·杰克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%C2%B7%E9%9B%B7%E8%AF%BA</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%B3%E8%B3%BD%C2%B7%E8%98%BF%E6%B6%B5</t>
   </si>
   <si>
-    <t>琳賽·蘿涵</t>
+    <t>琳赛·萝涵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E4%B8%B9%E5%A8%9C</t>
   </si>
   <si>
-    <t>瑪丹娜</t>
+    <t>玛丹娜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9B%E7%B1%B3%C2%B7%E6%91%A9%E5%B0%94</t>
@@ -467,25 +467,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%AD%E7%B6%AD%E6%96%AF%C2%B7%E5%8F%B2%E7%89%B9%E9%BE%8D</t>
   </si>
   <si>
-    <t>席維斯·史特龍</t>
+    <t>席维斯·史特龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E6%96%AF%E6%B3%B0%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>哈利·斯泰爾斯</t>
+    <t>哈利·斯泰尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%C2%B7%E5%8F%B2%E8%92%82%E8%8A%AC%E5%A6%AE</t>
   </si>
   <si>
-    <t>關·史蒂芬妮</t>
+    <t>关·史蒂芬妮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%94%9C%E7%94%9C%E5%B8%83%E8%98%AD%E5%A6%AE</t>
   </si>
   <si>
-    <t>小甜甜布蘭妮</t>
+    <t>小甜甜布兰妮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%8B%89%C2%B7%E7%8F%AD%E5%85%8B%E6%96%AF</t>
@@ -503,25 +503,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%98%AD%E9%81%94%C2%B7%E5%AE%8B</t>
   </si>
   <si>
-    <t>布蘭達·宋</t>
+    <t>布兰达·宋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%94%E8%A5%BF%E5%8D%A1%C2%B7%E8%BE%9B%E6%99%AE%E6%A3%AE</t>
   </si>
   <si>
-    <t>潔西卡·辛普森</t>
+    <t>洁西卡·辛普森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A0%B9%C2%B7%E5%88%A9%E6%96%87</t>
   </si>
   <si>
-    <t>盧根·利文</t>
+    <t>卢根·利文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%A5%BF%E5%82%91%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>波西傑克森</t>
+    <t>波西杰克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%BC%97%E5%88%A9%E6%8B%9C%E9%87%91%E7%8B%97</t>
@@ -533,13 +533,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E5%9C%92%E5%AC%8C%E5%A8%83</t>
   </si>
   <si>
-    <t>校園嬌娃</t>
+    <t>校园娇娃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%B6%8A%E6%AF%94%E4%BD%9B%E5%88%A9</t>
-  </si>
-  <si>
-    <t>飞越比佛利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/90210</t>
@@ -3512,7 +3509,7 @@
         <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3538,10 +3535,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>5</v>
@@ -3567,10 +3564,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3596,10 +3593,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -3625,10 +3622,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
